--- a/Spine_Projects/01_input_data/01_input_raw/Products/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\Products\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18B4070-4A74-4965-BC24-B89C745067E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB53DC-567C-44D3-A653-F01526132B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22740" yWindow="-21600" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1260,10 +1260,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1686,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1971,7 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\Products\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB53DC-567C-44D3-A653-F01526132B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1CCB53DC-567C-44D3-A653-F01526132B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA93F87-56C8-4342-9826-AF22942D7E59}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1682,7 +1682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1901,9 +1903,6 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="N10">
-        <v>1.4865951742627345E-3</v>
-      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -1916,9 +1915,6 @@
       </c>
       <c r="C11" t="s">
         <v>87</v>
-      </c>
-      <c r="N11">
-        <v>26.81</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1967,7 +1963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
